--- a/biology/Botanique/Robert_William_Read/Robert_William_Read.xlsx
+++ b/biology/Botanique/Robert_William_Read/Robert_William_Read.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert William Read (13 décembre 1931, Woodbury, New Jersey - 2003) était un botaniste américain.
 Il a développé son activité scientifique à la Smithsonian Institution, du musée national d'histoire naturelle des États-Unis en tant que spécialiste des monocotylédones néotropicales.
@@ -514,14 +526,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Titres
-1975 président de la Botanical Society de Washington.
-Éponymes
-(Acanthaceae) Justicia readii T.F.Daniel (en) &amp; Wassh.[1]
-(Arecaceae) Coccothrinax readii H.J.Quero[2]
-(Asclepiadaceae) Cynanchum readii (Schltr.) R.A.Howard (en)[3]
-(Hyacinthaceae) Ornithogalum readii (Baker) J.C.Manning (en) &amp; Goldblatt (en)[4]
-(Orchidaceae) Prasophyllum (en) readii D.L.Jones &amp; D.T.Rouse[5]</t>
+          <t>Titres</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1975 président de la Botanical Society de Washington.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Robert_William_Read</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Robert_William_Read</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Honneurs</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Éponymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Acanthaceae) Justicia readii T.F.Daniel (en) &amp; Wassh.
+(Arecaceae) Coccothrinax readii H.J.Quero
+(Asclepiadaceae) Cynanchum readii (Schltr.) R.A.Howard (en)
+(Hyacinthaceae) Ornithogalum readii (Baker) J.C.Manning (en) &amp; Goldblatt (en)
+(Orchidaceae) Prasophyllum (en) readii D.L.Jones &amp; D.T.Rouse</t>
         </is>
       </c>
     </row>
